--- a/backend/libraries/management/documents/r_codes.xlsx
+++ b/backend/libraries/management/documents/r_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\libraries\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39727BD7-71FD-4880-B0EA-F42CE31EBDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C480B409-AF2F-47F7-BE13-886CF2FB058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C8687CCE-B210-48BA-B2D8-7B4032A663A6}"/>
   </bookViews>
@@ -7329,7 +7329,7 @@
   <dimension ref="A1:G1087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/libraries/management/documents/r_codes.xlsx
+++ b/backend/libraries/management/documents/r_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahir\OneDrive\Desktop\Codes\YKHT\backend\libraries\management\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99931591-4A5E-4647-BD74-6C426B2DCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2BA6B-9D59-4197-9A7F-DA57B80F8254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C8687CCE-B210-48BA-B2D8-7B4032A663A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{C8687CCE-B210-48BA-B2D8-7B4032A663A6}"/>
   </bookViews>
   <sheets>
     <sheet name="R1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="1179">
   <si>
     <t>SABİT TESİSLER</t>
   </si>
@@ -3567,6 +3567,18 @@
   </si>
   <si>
     <t>AMR - ATLAS COPCO WEDA 4"</t>
+  </si>
+  <si>
+    <t>01-MK-26-10-4001</t>
+  </si>
+  <si>
+    <t>01-MK-26-10-4002</t>
+  </si>
+  <si>
+    <t>01-MK-26-10-4003</t>
+  </si>
+  <si>
+    <t>AMR - KAMYON - MAN - KH - GENERİC</t>
   </si>
 </sst>
 </file>
@@ -7326,15 +7338,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1C581C-A0C6-4EC4-87C1-49CA6A9EF0EE}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G1092"/>
+  <dimension ref="A1:G1095"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="E593" sqref="E593"/>
+    <sheetView tabSelected="1" topLeftCell="A1058" workbookViewId="0">
+      <selection activeCell="F1096" sqref="F1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.54296875" customWidth="1"/>
     <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
@@ -32600,6 +32613,87 @@
         <v>12-PR-70-10-1007</v>
       </c>
     </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1093" t="str">
+        <f>+LEFT(G1093,5)</f>
+        <v>01-MK</v>
+      </c>
+      <c r="B1093" s="9" t="str">
+        <f>+MID(G1093,7,2)</f>
+        <v>26</v>
+      </c>
+      <c r="C1093" s="9" t="str">
+        <f>+MID(G1093,10,2)</f>
+        <v>10</v>
+      </c>
+      <c r="D1093" s="11" t="str">
+        <f>+RIGHT(G1093,4)</f>
+        <v>4001</v>
+      </c>
+      <c r="E1093" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1093" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1094" t="str">
+        <f t="shared" ref="A1094:A1095" si="21">+LEFT(G1094,5)</f>
+        <v>01-MK</v>
+      </c>
+      <c r="B1094" s="9" t="str">
+        <f t="shared" ref="B1094:B1095" si="22">+MID(G1094,7,2)</f>
+        <v>26</v>
+      </c>
+      <c r="C1094" s="9" t="str">
+        <f t="shared" ref="C1094:C1095" si="23">+MID(G1094,10,2)</f>
+        <v>10</v>
+      </c>
+      <c r="D1094" s="11" t="str">
+        <f t="shared" ref="D1094:D1095" si="24">+RIGHT(G1094,4)</f>
+        <v>4002</v>
+      </c>
+      <c r="E1094" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1094" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1095" t="str">
+        <f t="shared" si="21"/>
+        <v>01-MK</v>
+      </c>
+      <c r="B1095" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="C1095" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="D1095" s="11" t="str">
+        <f t="shared" si="24"/>
+        <v>4003</v>
+      </c>
+      <c r="E1095" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F1095" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>1177</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1092" xr:uid="{8B1C581C-A0C6-4EC4-87C1-49CA6A9EF0EE}"/>
   <phoneticPr fontId="6" type="noConversion"/>
